--- a/tcs_sales_return.xlsx
+++ b/tcs_sales_return.xlsx
@@ -171,12 +171,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>135429808193278336_1</t>
+          <t>141891287883652288_1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -196,27 +196,27 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>536.607143</t>
+          <t>556.25</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>601.0</t>
+          <t>623.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>38.392857</t>
+          <t>36.607143</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>PUNJAB</t>
+          <t>BIHAR</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -226,7 +226,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -236,7 +236,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -263,12 +263,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>134953752649465984_1</t>
+          <t>144363361597256256_1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -288,27 +288,27 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>433.928571</t>
+          <t>449.107143</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>486.0</t>
+          <t>503.0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>133.035714</t>
+          <t>57.142857</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>PUNJAB</t>
+          <t>DELHI</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -318,7 +318,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -328,7 +328,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -355,12 +355,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>129467922418572096_1</t>
+          <t>144522401899240640_1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -370,7 +370,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -380,27 +380,27 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>470.535714</t>
+          <t>1141.071429</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>136</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>527.0</t>
+          <t>1278.0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>136.607143</t>
+          <t>101.785714</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -410,7 +410,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -420,7 +420,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -447,12 +447,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>33128155461128000_1</t>
+          <t>142611173932997824_1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-06-14</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -462,7 +462,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -472,27 +472,27 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-796.4285714285713</t>
+          <t>458.928571</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-95</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-892.0</t>
+          <t>514.0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-157.14285714285714</t>
+          <t>91.071429</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>PUNJAB</t>
+          <t>BIHAR</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -512,7 +512,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -539,12 +539,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>133462426921509440_1</t>
+          <t>142099847095931584_1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -564,27 +564,27 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>440.178571</t>
+          <t>596.428571</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>493.0</t>
+          <t>668.0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>67.857143</t>
+          <t>50.892857</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>UTTAR PRADESH</t>
+          <t>RAJASTHAN</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>132153965801832581_1</t>
+          <t>142686826162445504_1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -656,27 +656,27 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>483.928571</t>
+          <t>571.428571</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>542.0</t>
+          <t>640.0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>150.0</t>
+          <t>25.892857</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>GUJARAT</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-03-15</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>135684792071035648_1</t>
+          <t>140733194874491584_1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -748,27 +748,27 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>475.892857</t>
+          <t>566.071429</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>533.0</t>
+          <t>634.0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>148.214286</t>
+          <t>20.535714</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>DELHI</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>58830873763722112_1</t>
+          <t>147954005451834944_1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -840,27 +840,27 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1080.35714285714</t>
+          <t>600.892857</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1210.0</t>
+          <t>673.0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>216.07142857143</t>
+          <t>55.357143</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>ANDHRA PRADESH</t>
+          <t>DELHI</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -907,12 +907,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>51295979707477248_1</t>
+          <t>136333183377545984_1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -932,27 +932,27 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>487.5</t>
+          <t>448.214286</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>546.0</t>
+          <t>502.0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>76.78571428571</t>
+          <t>133.035714</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>TELANGANA</t>
+          <t>KARNATAKA</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>127698418994846080_1</t>
+          <t>138847892335921216_1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1024,27 +1024,27 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>517.857143</t>
+          <t>458.035714</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>580.0</t>
+          <t>513.0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>225.892857</t>
+          <t>130.357143</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>ANDAMAN AND NICOBAR ISLANDS</t>
+          <t>TELANGANA</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>132426049139933952_1</t>
+          <t>133104739804939008_1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-03-15</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1116,27 +1116,27 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>305.357143</t>
+          <t>426.785714</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>342.0</t>
+          <t>478.0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>51.785714</t>
+          <t>125.892857</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1183,12 +1183,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>130229772604572544_1</t>
+          <t>145797764948105792_1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1208,27 +1208,27 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>307.142857</t>
+          <t>583.035714</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>344.0</t>
+          <t>653.0</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>53.571429</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1275,12 +1275,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>136013613247660800_1</t>
+          <t>136231116158699840_1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>529.464286</t>
+          <t>583.928571</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>593.0</t>
+          <t>654.0</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>DELHI</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1367,12 +1367,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>133477294487603200_1</t>
+          <t>136321874279170944_1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1392,27 +1392,27 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>536.607143</t>
+          <t>469.642857</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>601.0</t>
+          <t>526.0</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>38.392857</t>
+          <t>126.785714</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>KARNATAKA</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>135230932553795584_1</t>
+          <t>144784534646921024_1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1484,27 +1484,27 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>536.607143</t>
+          <t>447.321429</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>601.0</t>
+          <t>501.0</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>38.392857</t>
+          <t>119.642857</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>BIHAR</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>133484896680052928_1</t>
+          <t>142579623813351744_1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1576,27 +1576,27 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>433.928571</t>
+          <t>475.0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>486.0</t>
+          <t>532.0</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>133.035714</t>
+          <t>147.321429</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>MAHARASHTRA</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>53743654389572480_1</t>
+          <t>134286281365947264_1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-08-10</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1668,27 +1668,27 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>578.57142857143</t>
+          <t>548.214286</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>648.0</t>
+          <t>614.0</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>146.42857142857</t>
+          <t>52.678571</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>JAMMU AND KASHMIR</t>
+          <t>ASSAM</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>128144514519205184_1</t>
+          <t>144364336102148416_1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1760,27 +1760,27 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>610.714286</t>
+          <t>589.285714</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>684.0</t>
+          <t>660.0</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>58.035714</t>
+          <t>43.75</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>JAMMU AND KASHMIR</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>128359903274534080_1</t>
+          <t>145901617732553856_1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1852,27 +1852,27 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>490.178571</t>
+          <t>459.821429</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>549.0</t>
+          <t>515.0</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>16.071429</t>
+          <t>67.857143</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>MADHYA PRADESH</t>
+          <t>TELANGANA</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1919,12 +1919,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>129569175996009728_1</t>
+          <t>138923246746178240_1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1944,27 +1944,27 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>508.928571</t>
+          <t>592.857143</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>570.0</t>
+          <t>664.0</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>133.035714</t>
+          <t>47.321429</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>MAHARASHTRA</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>135660059123157184_1</t>
+          <t>138093133825676096_1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2036,27 +2036,27 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>583.928571</t>
+          <t>479.464286</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>654.0</t>
+          <t>537.0</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>38.392857</t>
+          <t>151.785714</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>DELHI</t>
+          <t>CHHATTISGARH</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2103,12 +2103,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92979154555539072_1</t>
+          <t>137937741001164928_1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2128,27 +2128,27 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1141.0714285714284</t>
+          <t>529.464286</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1278.0</t>
+          <t>593.0</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>189.28571428571428</t>
+          <t>38.392857</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>RAJASTHAN</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2195,12 +2195,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>129259389416708928_1</t>
+          <t>143613346931383168_1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2220,27 +2220,27 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>458.035714</t>
+          <t>474.107143</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>513.0</t>
+          <t>531.0</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>124.107143</t>
+          <t>146.428571</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>HARYANA</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-03-15</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2287,12 +2287,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>135059045636379008_1</t>
+          <t>137499883867837248_1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2312,27 +2312,27 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>422.321429</t>
+          <t>583.928571</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>473.0</t>
+          <t>654.0</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>133.035714</t>
+          <t>38.392857</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>HARYANA</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2379,12 +2379,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>127970516221103360_1</t>
+          <t>138532131962458944_1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2404,27 +2404,27 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>571.428571</t>
+          <t>579.464286</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>640.0</t>
+          <t>649.0</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>18.75</t>
+          <t>33.928571</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>RAJASTHAN</t>
+          <t>MAHARASHTRA</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2471,12 +2471,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>136378653365836544_1</t>
+          <t>144118217358832192_1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2496,27 +2496,27 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>428.571429</t>
+          <t>596.428571</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>480.0</t>
+          <t>668.0</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>133.035714</t>
+          <t>50.892857</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>BIHAR</t>
+          <t>WEST BENGAL</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>130175769988497536_1</t>
+          <t>136354636222073024_1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2588,27 +2588,27 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>581.25</t>
+          <t>509.821429</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>651.0</t>
+          <t>571.0</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>28.571429</t>
+          <t>141.964286</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>KERALA</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2655,12 +2655,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>134173461269350592_1</t>
+          <t>142605009041093251_1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2680,27 +2680,27 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>438.392857</t>
+          <t>1053.571429</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>126</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>491.0</t>
+          <t>1180.0</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>66.071429</t>
+          <t>317.857143</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>ODISHA</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2747,12 +2747,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>129140905907391744_1</t>
+          <t>148054100188956224_1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2772,22 +2772,22 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>540.178571</t>
+          <t>600.892857</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>605.0</t>
+          <t>673.0</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>41.964286</t>
+          <t>55.357143</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>132071340289983168_1</t>
+          <t>136442287148309248_1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2864,27 +2864,27 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>608.928571</t>
+          <t>583.928571</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>682.0</t>
+          <t>654.0</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>56.25</t>
+          <t>38.392857</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>JAMMU AND KASHMIR</t>
+          <t>KARNATAKA</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2931,12 +2931,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>131788471928953601_1</t>
+          <t>145195338764253634_1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2956,27 +2956,27 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>594.642857</t>
+          <t>557.142857</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>666.0</t>
+          <t>624.0</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>41.964286</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>JAMMU AND KASHMIR</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -3023,12 +3023,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>127113479362517376_1</t>
+          <t>140069761984336704_1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3048,27 +3048,27 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>269.642857</t>
+          <t>583.928571</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>302.0</t>
+          <t>654.0</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>53.571429</t>
+          <t>38.392857</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>KARNATAKA</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3115,12 +3115,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>127720273147402624_1</t>
+          <t>139414249357808384_1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3140,22 +3140,22 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>311.607143</t>
+          <t>448.214286</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>349.0</t>
+          <t>502.0</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>70.535714</t>
+          <t>133.035714</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3207,12 +3207,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>123910636039203520_1</t>
+          <t>138592234642910272_1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3232,27 +3232,27 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>587.5</t>
+          <t>543.75</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>658.0</t>
+          <t>609.0</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>34.821429</t>
+          <t>24.107143</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>UTTARAKHAND</t>
+          <t>DELHI</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3299,12 +3299,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>134269762937981120_1</t>
+          <t>143298387562353344_1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3324,27 +3324,27 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>557.142857</t>
+          <t>462.5</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>624.0</t>
+          <t>518.0</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>94.642857</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>BIHAR</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3391,12 +3391,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>49838142534427392_1</t>
+          <t>148849321025442432_1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3416,27 +3416,27 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>530.35714285714</t>
+          <t>596.428571</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>594.0</t>
+          <t>668.0</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>98.21428571429</t>
+          <t>50.892857</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>RAJASTHAN</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3483,12 +3483,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>136360395586408832_1</t>
+          <t>140027431185126020_1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3508,27 +3508,27 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>583.928571</t>
+          <t>440.178571</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>654.0</t>
+          <t>493.0</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>38.392857</t>
+          <t>48.214286</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>DELHI</t>
+          <t>MAHARASHTRA</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3575,12 +3575,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>127749082940775936_1</t>
+          <t>136320417534354048_1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3600,27 +3600,27 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>311.607143</t>
+          <t>440.178571</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>349.0</t>
+          <t>493.0</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>70.535714</t>
+          <t>126.785714</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3667,12 +3667,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>133403191416234112_1</t>
+          <t>142912269948979520_1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3692,27 +3692,27 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>422.321429</t>
+          <t>614.285714</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>473.0</t>
+          <t>688.0</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>133.035714</t>
+          <t>68.75</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>UTTAR PRADESH</t>
+          <t>JAMMU AND KASHMIR</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>128524973043380544_1</t>
+          <t>135667162106077312_1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3784,27 +3784,27 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>516.964286</t>
+          <t>477.678571</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>579.0</t>
+          <t>535.0</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>18.75</t>
+          <t>150.0</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>HARYANA</t>
+          <t>TELANGANA</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2025-03-15</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3851,12 +3851,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>51283539796077824_1</t>
+          <t>140501469531575104_1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3876,27 +3876,27 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>425.0</t>
+          <t>583.928571</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>476.0</t>
+          <t>654.0</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>67.85714285714</t>
+          <t>38.392857</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>KARNATAKA</t>
+          <t>DELHI</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3943,12 +3943,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>138206452947456640_1</t>
+          <t>138565831763069002_1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3968,27 +3968,27 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>421.428571</t>
+          <t>543.75</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>472.0</t>
+          <t>609.0</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>67.857143</t>
+          <t>24.107143</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -4035,12 +4035,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>130163943922539269_1</t>
+          <t>144423634277653696_1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4060,27 +4060,27 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>307.142857</t>
+          <t>583.035714</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>344.0</t>
+          <t>653.0</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>53.571429</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>KERALA</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -4127,12 +4127,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>132142808663229120_1</t>
+          <t>140174333312927829_1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4152,27 +4152,27 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>593.75</t>
+          <t>575.0</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>665.0</t>
+          <t>644.0</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>41.071429</t>
+          <t>29.464286</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>KERALA</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -4219,12 +4219,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>50800802068965248_1</t>
+          <t>147644750064617024_1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4244,27 +4244,27 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>487.5</t>
+          <t>565.178571</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>546.0</t>
+          <t>633.0</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>98.21428571429</t>
+          <t>173.214286</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>UTTAR PRADESH</t>
+          <t>KARNATAKA</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
